--- a/苗栗縣警察局防空疏散.xlsx
+++ b/苗栗縣警察局防空疏散.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE91EB7C-BC2E-4662-89D8-02B8E0F815A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2DE380-0F0F-4F56-8CF7-A16FBDEC3559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BF825CF5-1679-4023-8DD2-ECB7F2FDFE9E}"/>
+    <workbookView minimized="1" xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{BF825CF5-1679-4023-8DD2-ECB7F2FDFE9E}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="98">
   <si>
     <t>C001</t>
   </si>
@@ -1089,6 +1089,14 @@
       </rPr>
       <t>號</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1628,8 +1636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B12B6A5-2771-404E-8225-412A04A53BB3}">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1778,6 +1786,17 @@
       <c r="J10" s="2"/>
       <c r="K10" s="4"/>
     </row>
+    <row r="12" spans="1:15">
+      <c r="B12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" t="s">
+        <v>96</v>
+      </c>
+      <c r="L12" t="s">
+        <v>96</v>
+      </c>
+    </row>
     <row r="13" spans="1:15" ht="45.75" thickBot="1">
       <c r="A13" s="17" t="s">
         <v>80</v>
@@ -2014,73 +2033,64 @@
       <c r="F23" s="1"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:12" ht="57" customHeight="1" thickBot="1">
+    <row r="24" spans="1:12" ht="55.5" customHeight="1">
       <c r="A24" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="78.75" customHeight="1" thickBot="1">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:12" ht="29.25" customHeight="1" thickBot="1">
+      <c r="A25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="32.25" thickBot="1">
+      <c r="A26" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>71</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D26" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E26" t="s">
         <v>89</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F26" t="s">
         <v>69</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G26" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="30.75" thickBot="1">
-      <c r="A26" s="1">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26">
-        <v>100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="L26" s="13"/>
     </row>
     <row r="27" spans="1:12" ht="30.75" thickBot="1">
       <c r="A27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E27">
-        <v>3142</v>
+        <v>100</v>
       </c>
       <c r="F27" s="3">
         <v>1</v>
@@ -2092,19 +2102,19 @@
     </row>
     <row r="28" spans="1:12" ht="30.75" thickBot="1">
       <c r="A28" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B28" t="s">
         <v>32</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E28">
-        <v>1072</v>
+        <v>3142</v>
       </c>
       <c r="F28" s="3">
         <v>1</v>
@@ -2116,19 +2126,19 @@
     </row>
     <row r="29" spans="1:12" ht="30.75" thickBot="1">
       <c r="A29" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E29">
-        <v>32</v>
+        <v>1072</v>
       </c>
       <c r="F29" s="3">
         <v>1</v>
@@ -2140,139 +2150,139 @@
     </row>
     <row r="30" spans="1:12" ht="56.25" customHeight="1" thickBot="1">
       <c r="A30" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>65</v>
+        <v>10</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="E30">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="F30" s="3">
         <v>1</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="L30" s="13"/>
     </row>
-    <row r="31" spans="1:12" ht="30.75" thickBot="1">
+    <row r="31" spans="1:12" ht="33.75" thickBot="1">
       <c r="A31" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>66</v>
+        <v>47</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="E31">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="F31" s="3">
         <v>1</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="L31" s="13"/>
     </row>
     <row r="32" spans="1:12" ht="52.5" customHeight="1" thickBot="1">
       <c r="A32" s="1">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32">
+        <v>26</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32" s="13"/>
+    </row>
+    <row r="33" spans="1:12" ht="33.75" thickBot="1">
+      <c r="A33" s="1">
         <v>7</v>
-      </c>
-      <c r="B32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E32">
-        <v>2038</v>
-      </c>
-      <c r="F32" s="3">
-        <v>2</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L32" s="13"/>
-    </row>
-    <row r="33" spans="1:12" ht="30.75" thickBot="1">
-      <c r="A33" s="1">
-        <v>8</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>68</v>
+        <v>47</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="E33">
-        <v>128</v>
+        <v>2038</v>
       </c>
       <c r="F33" s="3">
         <v>2</v>
       </c>
       <c r="G33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L33" s="13"/>
+    </row>
+    <row r="34" spans="1:12" ht="30.75" thickBot="1">
+      <c r="A34" s="1">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34">
+        <v>128</v>
+      </c>
+      <c r="F34" s="3">
+        <v>2</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L33" s="13"/>
-    </row>
-    <row r="34" spans="1:12" ht="45" thickBot="1">
-      <c r="A34" s="1">
+      <c r="L34" s="13"/>
+    </row>
+    <row r="35" spans="1:12" ht="45" thickBot="1">
+      <c r="A35" s="1">
         <v>9</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D35" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E34">
+      <c r="E35">
         <v>353</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L34" s="13"/>
-    </row>
-    <row r="35" spans="1:12" ht="30.75" thickBot="1">
-      <c r="A35" s="1">
-        <v>10</v>
-      </c>
-      <c r="B35" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E35">
-        <v>501</v>
       </c>
       <c r="F35" s="3">
         <v>1</v>
@@ -2283,20 +2293,20 @@
       <c r="L35" s="13"/>
     </row>
     <row r="36" spans="1:12" ht="30.75" thickBot="1">
-      <c r="A36" s="8">
-        <v>11</v>
+      <c r="A36" s="1">
+        <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E36">
-        <v>194</v>
+        <v>501</v>
       </c>
       <c r="F36" s="3">
         <v>1</v>
@@ -2306,21 +2316,21 @@
       </c>
       <c r="L36" s="13"/>
     </row>
-    <row r="37" spans="1:12" ht="45" thickBot="1">
+    <row r="37" spans="1:12" ht="30.75" thickBot="1">
       <c r="A37" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E37">
-        <v>78</v>
+        <v>194</v>
       </c>
       <c r="F37" s="3">
         <v>1</v>
@@ -2330,7 +2340,28 @@
       </c>
       <c r="L37" s="13"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" ht="45" thickBot="1">
+      <c r="A38" s="8">
+        <v>12</v>
+      </c>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38">
+        <v>78</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="L38" s="13"/>
     </row>
     <row r="39" spans="1:12">
